--- a/python_basic.xlsx
+++ b/python_basic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python_Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B932526-A561-4D4E-A290-38E50CBF9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E65BB4-151E-4F7D-8912-D7159E8C0D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/python_basic.xlsx
+++ b/python_basic.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python_Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E65BB4-151E-4F7D-8912-D7159E8C0D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC34452-8846-4BCB-98C5-A63109B63BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Library" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="QA" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,18 +221,1687 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xlrd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xlwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openpyxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xlutils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlwings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win32com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysqlclient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snaconda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statsmodels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggplot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seaborn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scipy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selenium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from selenium import webdriver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">自动化工具
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">from selenium.webdriver.chrome.options import Options </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyinstaller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensirion_fastedf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>筛选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件内容</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HTML,XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sensirion edf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Install/Import Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pypi.douban.com/simple/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pypi.tuna.tsinghua.edu.cn/simple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install seaborn==0.12.2 -i https://pypi.tuna.tsinghua.edu.cn/simple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时从镜像安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandas_alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画动态图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tkinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyQt5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyQt6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyQt5Designer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sqlite3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库操作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ipywidgets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jupyter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交互控件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将脚本打包成exe文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install pythonnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言软件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粘贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyarrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install feather-format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyodbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pymysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件格式转换工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install pandoc-xnos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">from IPython.core.interactiveshell import InteractiveShell 
+InteractiveShell.ast_node_interactivity = 'all' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看库版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中多个输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在同一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中打印多个输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyspellchecker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python -m pip install pyspellchecker
+import spellchecker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼写检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jupyter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">%pwd: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">查看当前的工作目录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%cd: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">更改当前的工作目录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%ls: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">查看目录文件列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%writefile: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">写入文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%run: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行脚本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行脚本；％</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>run</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码，也可以指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ipynb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%whos: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">查看当前变量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%reset: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">请除当前变量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">%timeit: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试单行代码运行时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jupyte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认路径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.path.abspath(“.”)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jupyter notebook --generate-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Cmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令行输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: jupyter notebook --generate-config</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置默认工作目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># c.NotebookApp.notebook_dir = ''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件中找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:# c.NotebookApp.notebook_dir = ''</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置默认浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令模式快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Esc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将带你进入命令模式，你可以使用箭头键在笔记本上导航，命令行模式下的操作：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键盘上的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在当前单元格上方插入一个新单元格，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在下面插入一个新单元格。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键盘上的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将当前单元格更改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Markdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将其更改回代码格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+D+D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：按键两次，删除当前的单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Shift-Enter : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行本单元，选中下个单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ctrl-Enter : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行本单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Alt-Enter : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行本单元，在其下插入新单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Shift-K : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩大选中上方单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Shift-J : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩大选中下方单元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键盘上的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键会从命令模式转换回给定单元格的编辑模式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Shift + Tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：显示刚刚在代码单元中输入的对象的文档字符串（文档）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ctrl + Shift + - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：将当前单元格从光标所在的位置分成两部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Esc + F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：查找并替换代码，而不是输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Esc + O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：切换单元格输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Shift + J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shift + Down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：选择向下的下一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cell
+Shift + K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shift + Up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：选择向上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cell
+Shift + M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：合并多个单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ctrl-M : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入命令模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Shift-Enter : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行本单元，选中下一单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ctrl-Enter : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行本单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Alt-Enter : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行本单元，在下面插入一单元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings\advance settings editor\ "codeFolding": true,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jupyer-lab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码折叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys.executable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看解释器路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python -m pip install --upgrade pip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mirrors.aliyun.com/pypi/simple/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿里: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyqtgraph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆瓣</t>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +1950,41 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,10 +2003,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,8 +2021,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -329,6 +2047,203 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61504C4-7505-7EA1-7D1C-BEE9BFE5FA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5759450" cy="3211830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>818515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A picture containing text&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C6B64C-9AE7-29D9-16EB-D6BF7F826E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="4619625"/>
+          <a:ext cx="2524125" cy="818515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>819151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2524125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>966333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C410327-9272-5992-332D-387BC5577E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="5438776"/>
+          <a:ext cx="2457450" cy="147182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2446618</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>741680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Graphical user interface, application&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E850731-FE15-984D-3CFB-E0FE571503A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3333750" y="5771029"/>
+          <a:ext cx="2446618" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,26 +2508,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65406EC2-406D-4081-8045-8C19BC7D9298}">
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="45">
+      <c r="B27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30">
+      <c r="B55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{41297F6C-42E3-4272-98A2-A6F42F06D3C6}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{61E07B77-36A1-42A6-9244-FD2946520CFD}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{EFD1B7C1-FCC4-418B-B339-1AE76274E528}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C13262-05F9-4F83-BCE3-D0E83B29A1AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -683,15 +3016,181 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="179.25" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="88.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="88.5" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/python_basic.xlsx
+++ b/python_basic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python_Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC34452-8846-4BCB-98C5-A63109B63BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A8C089-8428-4790-A007-1B8D785114A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
@@ -2511,11 +2511,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65406EC2-406D-4081-8045-8C19BC7D9298}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
